--- a/docs/WMX3API_MCEval_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Dataset.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>TaskId</t>
   </si>
@@ -38,7 +38,10 @@
     <t>CanonicalCode</t>
   </si>
   <si>
-    <t>LogData</t>
+    <t>EndPoint</t>
+  </si>
+  <si>
+    <t>MotionLogData</t>
   </si>
 </sst>
 </file>
@@ -1010,21 +1013,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="28.4196428571429" customWidth="1"/>
+    <col min="1" max="1" width="8.92857142857143" customWidth="1"/>
     <col min="2" max="2" width="35.2678571428571" customWidth="1"/>
     <col min="3" max="3" width="46.875" customWidth="1"/>
-    <col min="4" max="4" width="34.6607142857143" customWidth="1"/>
+    <col min="4" max="4" width="29.1607142857143" customWidth="1"/>
+    <col min="5" max="5" width="37.6428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1036,6 +1040,144 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/WMX3API_MCEval_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18160"/>
+    <workbookView/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -27,12 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>TaskId</t>
   </si>
   <si>
-    <t>MCPrompt</t>
+    <t>Instruction</t>
   </si>
   <si>
     <t>CanonicalCode</t>
@@ -42,6 +42,16 @@
   </si>
   <si>
     <t>MotionLogData</t>
+  </si>
+  <si>
+    <t>Start an absolute position command of Axis0 to position 180 with 1000 velocity.</t>
+  </si>
+  <si>
+    <t>[[0],
+[180]]</t>
+  </si>
+  <si>
+    <t>[[1,2,3,4,5,6]]</t>
   </si>
 </sst>
 </file>
@@ -662,10 +672,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1015,14 +1031,14 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8.92857142857143" customWidth="1"/>
-    <col min="2" max="2" width="35.2678571428571" customWidth="1"/>
+    <col min="2" max="2" width="83.9821428571429" customWidth="1"/>
     <col min="3" max="3" width="46.875" customWidth="1"/>
     <col min="4" max="4" width="29.1607142857143" customWidth="1"/>
     <col min="5" max="5" width="37.6428571428571" customWidth="1"/>
@@ -1045,143 +1061,258 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="2" ht="34" spans="1:5">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/docs/WMX3API_MCEval_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView/>
+    <workbookView windowHeight="18160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1031,8 +1031,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1314,5 +1314,27 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="line" displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet2!E2</xm:f>
+              <xm:sqref>F2</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/WMX3API_MCEval_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18160"/>
+    <workbookView windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>TaskId</t>
   </si>
@@ -44,14 +44,38 @@
     <t>MotionLogData</t>
   </si>
   <si>
-    <t>Start an absolute position command of Axis0 to position 180 with 1000 velocity.</t>
+    <t>Start an absolute position command of Axis 0 to position 180 with 1000 velocity.</t>
   </si>
   <si>
     <t>[[0],
 [180]]</t>
   </si>
   <si>
-    <t>[[1,2,3,4,5,6]]</t>
+    <t>[[1,2,3,4,5,6,...]]</t>
+  </si>
+  <si>
+    <t>Start a relative position command of Axis 1 with 200 distance and 2000 velocity.</t>
+  </si>
+  <si>
+    <t>[[1],
+[200]]</t>
+  </si>
+  <si>
+    <t>Jog Axis 2 for 3.5s with 160 velocity.</t>
+  </si>
+  <si>
+    <t>[[2],
+[200]]</t>
+  </si>
+  <si>
+    <t>Start an absolute position command of Axis 0 to position 180 with 1000 velocity, and then start a relative position command of Axis 1 with 200 distance and 2000 velocity.</t>
+  </si>
+  <si>
+    <t>[[0,1],
+[180,200]]</t>
+  </si>
+  <si>
+    <t>[[1,2,3,4,5,6,...],[0,1,2,3,4,5,...]]</t>
   </si>
 </sst>
 </file>
@@ -68,14 +92,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -83,7 +107,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -91,14 +115,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -106,7 +130,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -114,7 +138,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -122,7 +146,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -130,7 +154,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -138,14 +162,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -153,7 +177,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -161,7 +185,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -169,14 +193,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -184,42 +208,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -527,19 +551,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,7 +572,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,68 +696,71 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1031,83 +1058,97 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.92857142857143" customWidth="1"/>
-    <col min="2" max="2" width="83.9821428571429" customWidth="1"/>
-    <col min="3" max="3" width="46.875" customWidth="1"/>
-    <col min="4" max="4" width="29.1607142857143" customWidth="1"/>
-    <col min="5" max="5" width="37.6428571428571" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="84" customWidth="1"/>
+    <col min="3" max="3" width="46.8359375" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="17" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="34" spans="1:5">
+    <row r="2" ht="45" customHeight="1" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="34" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="34" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="34" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1328,7 +1369,7 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet2!E2</xm:f>
+              <xm:f>Sheet2!E2:E2</xm:f>
               <xm:sqref>F2</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>

--- a/docs/WMX3API_MCEval_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16460"/>
+    <workbookView windowHeight="17420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>TaskId</t>
   </si>
@@ -68,14 +68,49 @@
 [200]]</t>
   </si>
   <si>
-    <t>Start an absolute position command of Axis 0 to position 180 with 1000 velocity, and then start a relative position command of Axis 1 with 200 distance and 2000 velocity.</t>
+    <t>Start an absolute position command of Axis 0 to position 180 with 1000 velocity, and then start a relative position command of Axis 0 with 200 distance and 2000 velocity.</t>
+  </si>
+  <si>
+    <t>[[0],
+[380]]</t>
+  </si>
+  <si>
+    <t>Start an absolute position path interpolation motion command of Axis 0 and 1 with velocity 1000. The 1st segment is a linear interpolation to position (-200, -200), the 2nd segment is a counterclockwise circular interpolation to position (-150, -200) with center point (0, 0), the 3rd segment is a linear interpolation to position (-180, -10), and the 4th segment is a clockwise circular interpolation to position (-10, -150) with center point (0, 0).</t>
   </si>
   <si>
     <t>[[0,1],
-[180,200]]</t>
-  </si>
-  <si>
-    <t>[[1,2,3,4,5,6,...],[0,1,2,3,4,5,...]]</t>
+[-10, -150]]</t>
+  </si>
+  <si>
+    <t>[[1,2,3,4,5,6,...],
+[1,2,3,4,5,6,...]]</t>
+  </si>
+  <si>
+    <t>Set output bit 0.2 to be 1, sleep for 0.15 seconds, then set it to be 0.</t>
+  </si>
+  <si>
+    <t>[[0,0,0,1,1,1,...]]</t>
+  </si>
+  <si>
+    <t>Start a absolute position linear interpolation motion command of Axis 0 and 1 to position (300, 100) with 1000 velocity.</t>
+  </si>
+  <si>
+    <t>[[0,1],
+[300, 100]]</t>
+  </si>
+  <si>
+    <t>Start a relative position linear interpolation motion command of Axis 0 and 1 with  (200, -150) distance with 1000 velocity.</t>
+  </si>
+  <si>
+    <t>[[0,1],
+[200, 150]]</t>
+  </si>
+  <si>
+    <t>Start a absolute position linear interpolation motion command of Axis 0 and 1 to position (300, 100) with 1000 velocity, and then start a relative position linear interpolation motion command of Axis 0 and 1 with  (200, -150) distance with 1000 velocity.</t>
+  </si>
+  <si>
+    <t>[[0,1],
+[500, -50]]</t>
   </si>
 </sst>
 </file>
@@ -88,26 +123,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -115,14 +143,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -130,7 +158,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -138,7 +166,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -146,7 +174,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -154,7 +182,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -162,14 +190,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -177,7 +205,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -185,7 +213,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -193,14 +221,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -208,42 +236,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -566,139 +594,139 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -712,55 +740,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1059,16 +1087,16 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="84" customWidth="1"/>
-    <col min="3" max="3" width="46.8359375" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46.8392857142857" customWidth="1"/>
+    <col min="4" max="4" width="29.1607142857143" customWidth="1"/>
+    <col min="5" max="5" width="37.6607142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:5">
@@ -1129,7 +1157,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="34" spans="1:5">
+    <row r="5" ht="51" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1141,53 +1169,81 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="101" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="17" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="34" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="34" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="68" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">

--- a/docs/WMX3API_MCEval_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17420"/>
+    <workbookView windowWidth="30080" windowHeight="20100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>TaskId</t>
   </si>
@@ -111,6 +111,13 @@
   <si>
     <t>[[0,1],
 [500, -50]]</t>
+  </si>
+  <si>
+    <t>Establish synchronous control between master axis 0 and a slave axis 1, then move Axis 0 to position 188 with velocity 1200.</t>
+  </si>
+  <si>
+    <t>[[0,1],
+[188, 188]]</t>
   </si>
 </sst>
 </file>
@@ -1086,8 +1093,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1245,14 +1252,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="34" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">

--- a/docs/WMX3API_MCEval_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30080" windowHeight="20100"/>
+    <workbookView windowWidth="30080" windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>TaskId</t>
   </si>
@@ -79,7 +79,7 @@
   </si>
   <si>
     <t>[[0,1],
-[-10, -150]]</t>
+[-10,-150]]</t>
   </si>
   <si>
     <t>[[1,2,3,4,5,6,...],
@@ -96,28 +96,42 @@
   </si>
   <si>
     <t>[[0,1],
-[300, 100]]</t>
+[300,100]]</t>
   </si>
   <si>
     <t>Start a relative position linear interpolation motion command of Axis 0 and 1 with  (200, -150) distance with 1000 velocity.</t>
   </si>
   <si>
     <t>[[0,1],
-[200, 150]]</t>
+[200,150]]</t>
   </si>
   <si>
     <t>Start a absolute position linear interpolation motion command of Axis 0 and 1 to position (300, 100) with 1000 velocity, and then start a relative position linear interpolation motion command of Axis 0 and 1 with  (200, -150) distance with 1000 velocity.</t>
   </si>
   <si>
     <t>[[0,1],
-[500, -50]]</t>
+[500,-50]]</t>
   </si>
   <si>
     <t>Establish synchronous control between master axis 0 and a slave axis 1, then move Axis 0 to position 188 with velocity 1200.</t>
   </si>
   <si>
     <t>[[0,1],
-[188, 188]]</t>
+[188,188]]</t>
+  </si>
+  <si>
+    <t>Start a cubic spline motion command of Axis 2 and 3 with the total time of 1000ms to complete, the 1st point to 9th point are (0,0),(10,0),(50,50),(100,100),(100,150),(0,150),(0,100),(50,50),(7,8).</t>
+  </si>
+  <si>
+    <t>[[2,3],
+[7,8]]</t>
+  </si>
+  <si>
+    <t>Create and execute a cyclic buffer memory space for an axis 4, to pisition 100 within 200 cycles, then to pisition 10 within 600 cycles, then to pisition -100 within 200 cycles, then sleep 1.5s, and close the cyclic buffer.</t>
+  </si>
+  <si>
+    <t>[[0],
+[-100]]</t>
   </si>
 </sst>
 </file>
@@ -1093,8 +1107,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1267,23 +1281,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="51" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="51" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">

--- a/docs/WMX3API_MCEval_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Dataset.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>TaskId</t>
   </si>
@@ -130,8 +130,15 @@
     <t>Create and execute a cyclic buffer memory space for an axis 4, to pisition 100 within 200 cycles, then to pisition 10 within 600 cycles, then to pisition -100 within 200 cycles, then sleep 1.5s, and close the cyclic buffer.</t>
   </si>
   <si>
-    <t>[[0],
+    <t>[[4],
 [-100]]</t>
+  </si>
+  <si>
+    <t>Start the motion for a path interpolation with look ahead channel 0 for Axis 0 and 1, the 1st to 4th points are (100, 0) with smoothRadius as 12.5, (100, 100) with smoothRadius as 25,(0, 100) with smoothRadius as 50, and(0, 0).</t>
+  </si>
+  <si>
+    <t>[[0,1],
+[0,0]]</t>
   </si>
 </sst>
 </file>
@@ -1107,8 +1114,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1311,14 +1318,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" ht="51" spans="1:5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">

--- a/docs/WMX3API_MCEval_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Dataset.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>TaskId</t>
   </si>
@@ -51,9 +52,6 @@
 [180]]</t>
   </si>
   <si>
-    <t>[[1,2,3,4,5,6,...]]</t>
-  </si>
-  <si>
     <t>Start a relative position command of Axis 1 with 200 distance and 2000 velocity.</t>
   </si>
   <si>
@@ -82,14 +80,7 @@
 [-10,-150]]</t>
   </si>
   <si>
-    <t>[[1,2,3,4,5,6,...],
-[1,2,3,4,5,6,...]]</t>
-  </si>
-  <si>
     <t>Set output bit 0.2 to be 1, sleep for 0.15 seconds, then set it to be 0.</t>
-  </si>
-  <si>
-    <t>[[0,0,0,1,1,1,...]]</t>
   </si>
   <si>
     <t>Start a absolute position linear interpolation motion command of Axis 0 and 1 to position (300, 100) with 1000 velocity.</t>
@@ -139,6 +130,9 @@
   <si>
     <t>[[0,1],
 [0,0]]</t>
+  </si>
+  <si>
+    <t>Start a clockwise circular interpolation motion command of Axis 0 and 1 with center position (100, 200), arc length 360, velocity 1000.</t>
   </si>
 </sst>
 </file>
@@ -151,10 +145,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -622,137 +622,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -765,6 +765,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1114,8 +1117,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1155,305 +1158,184 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="34" spans="1:5">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="34" spans="1:5">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="51" spans="1:5">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="101" spans="1:5">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" ht="17" spans="1:5">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" ht="34" spans="1:5">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" ht="34" spans="1:5">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" ht="68" spans="1:5">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" ht="34" spans="1:5">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" ht="51" spans="1:5">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" ht="51" spans="1:5">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" ht="51" spans="1:5">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2"/>
+      <c r="A16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1486,4 +1368,338 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="84" customWidth="1"/>
+    <col min="3" max="3" width="46.8392857142857" customWidth="1"/>
+    <col min="4" max="4" width="29.1607142857143" customWidth="1"/>
+    <col min="5" max="5" width="37.6607142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="45" customHeight="1" spans="1:5">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" ht="34" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="34" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="51" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" ht="101" spans="1:5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" ht="17" spans="1:5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" ht="34" spans="1:5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="34" spans="1:5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="68" spans="1:5">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" ht="34" spans="1:5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" ht="51" spans="1:5">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" ht="51" spans="1:5">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" ht="51" spans="1:5">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" ht="34" spans="1:5">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="line" displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Sheet2 (2)'!E2:E2</xm:f>
+              <xm:sqref>F2</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/docs/WMX3API_MCEval_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Dataset.xlsx
@@ -132,7 +132,7 @@
 [0,0]]</t>
   </si>
   <si>
-    <t>Start a clockwise circular interpolation motion command of Axis 0 and 1 with center position (100, 200), arc length 360, velocity 1000.</t>
+    <t>Start a clockwise circular interpolation motion command of Axis 0 and 1 with center position (100, 200), arc length 360, and velocity 1000.</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1170,20 +1170,20 @@
     <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
@@ -1376,7 +1376,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="4"/>

--- a/docs/WMX3API_MCEval_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Dataset.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>TaskId</t>
   </si>
@@ -63,7 +63,7 @@
   </si>
   <si>
     <t>[[2],
-[200]]</t>
+[396]]</t>
   </si>
   <si>
     <t>Start an absolute position command of Axis 0 to position 180 with 1000 velocity, and then start a relative position command of Axis 0 with 200 distance and 2000 velocity.</t>
@@ -133,6 +133,10 @@
   </si>
   <si>
     <t>Start a clockwise circular interpolation motion command of Axis 0 and 1 with center position (100, 200), arc length 360, and velocity 1000.</t>
+  </si>
+  <si>
+    <t>[[2],
+[200]]</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1122,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1160,95 +1164,171 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
+    <row r="3" ht="34" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+    <row r="4" ht="34" spans="1:5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
+    <row r="5" ht="51" spans="1:5">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
+    <row r="6" ht="101" spans="1:5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+    <row r="7" ht="17" spans="1:5">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+    <row r="8" ht="34" spans="1:5">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+    <row r="9" ht="34" spans="1:5">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+    <row r="10" ht="68" spans="1:5">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+    <row r="11" ht="34" spans="1:5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+    <row r="12" ht="51" spans="1:5">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+    <row r="13" ht="51" spans="1:5">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5"/>
+    <row r="14" ht="51" spans="1:5">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
+    <row r="15" ht="34" spans="1:5">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
@@ -1375,8 +1455,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="99" zoomScaleNormal="99" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B15" sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1440,7 +1520,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2"/>
     </row>

--- a/docs/WMX3API_MCEval_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30080" windowHeight="16760"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="113">
   <si>
     <t>TaskId</t>
   </si>
@@ -83,7 +83,7 @@
     <t>Set output bit 0.2 to be 1, sleep for 0.15 seconds, then set it to be 0.</t>
   </si>
   <si>
-    <t>Start a absolute position linear interpolation motion command of Axis 0 and 1 to position (300, 100) with 1000 velocity.</t>
+    <t>Start an absolute position linear interpolation motion command of Axis 0 and 1 to position (300, 100) with 1000 velocity.</t>
   </si>
   <si>
     <t>[[0,1],
@@ -97,7 +97,7 @@
 [200,150]]</t>
   </si>
   <si>
-    <t>Start a absolute position linear interpolation motion command of Axis 0 and 1 to position (300, 100) with 1000 velocity, and then start a relative position linear interpolation motion command of Axis 0 and 1 with  (200, -150) distance with 1000 velocity.</t>
+    <t>Start an absolute position linear interpolation motion command of Axis 0 and 1 to position (300, 100) with 1000 velocity, and then start a relative position linear interpolation motion command of Axis 0 and 1 with  (200, -150) distance with 1000 velocity.</t>
   </si>
   <si>
     <t>[[0,1],
@@ -135,8 +135,275 @@
     <t>Start a clockwise circular interpolation motion command of Axis 0 and 1 with center position (100, 200), arc length 360, and velocity 1000.</t>
   </si>
   <si>
+    <t>Start a helical interpolation motion command of clockwise circular interpolation of Axis 4 and 5 with center position  (100, 120), rotation degree 720, and velocity 1060, while concurrently moving axis 8 as the linear axis to position 140.</t>
+  </si>
+  <si>
+    <t>[[4,5,8],
+[0,0,140]]</t>
+  </si>
+  <si>
+    <t>Start a relative triggered position command of Axis 1 with 180 distance and velocity of 1000, and the triggered condition is the remaining distance for Axis 0 to the target position is 30 while it moves a relative 100 distance.</t>
+  </si>
+  <si>
+    <t>[[0,1],
+[100,180]]</t>
+  </si>
+  <si>
+    <t>Initialize WMX3, sleep 1.6s, and close WMX3.</t>
+  </si>
+  <si>
+    <t>[[0],
+[0]]</t>
+  </si>
+  <si>
+    <t>Record and execute an API buffer with two segments: Move Axis 0 to position 200 and Axis 1 to postion 100.</t>
+  </si>
+  <si>
+    <t>[[0,1],
+[200,100]]</t>
+  </si>
+  <si>
+    <t>Set an event to trigger a relative position command of Axis 0 with 110 distance and 1000 velocity, when Output 0.1 = 1. Event id is 10.</t>
+  </si>
+  <si>
+    <t>[[0],
+[110]]</t>
+  </si>
+  <si>
+    <t>Execute an absolute triggered position command.Start an absolute postion command of Axis 0 to position 124 with velocity 1000, when the remaining time is 0, triggers Axis 0 to move to the absolute position of 70 with velocity 2000.</t>
+  </si>
+  <si>
+    <t>[[0],
+[70]]</t>
+  </si>
+  <si>
+    <t>Execute an absolute position linear interpolation motion command. Control Axis 0 and 1 to linearly interpolate to position (300, 100) at a velocity of 1000, with acceleration and deceleration of 10000. Set the maximum velocity of Axis 0 to 600.</t>
+  </si>
+  <si>
+    <t>Execute an absolute position linear interpolation motion command. Control Axis 0 and Axis 1 to linearly interpolate to position (300, 100). Set the maximum velocity of Axis 0 to 600 and Axis 1 to 500, with a maximum acceleration and deceleration of Axis 0 to 4000 and Axis 1 to 3000.</t>
+  </si>
+  <si>
+    <t>Execute an absolute position triggered linear interpolation motion command.Control Axis 0 and Axis 1 to linearly interpolate to (150, 30) at a velocity of 1000 with acceleration and deceleration of 10000. Wait for 1 millisecond, then execute the trigger linear interpolation motion command. When the completed distance reaches 100, move Axis 0 and Axis 1 to (-100, -10).</t>
+  </si>
+  <si>
+    <t>[[0,1],
+[-100,-10]]</t>
+  </si>
+  <si>
+    <t>Execute an absolute position triggered linear interpolation motion command.Control Axis 0 and Axis 1 to linearly interpolate to (130, 60) at a velocity of 1000 with acceleration and deceleration of 10000. Wait for 1 millisecond, then execute the trigger linear interpolation motion command. When the remaining distance is 80, trigger Axis 0 and Axis 1 to (-70, -40).</t>
+  </si>
+  <si>
+    <t>[[0,1],
+[-70,-40]]</t>
+  </si>
+  <si>
+    <t>Execute an absolute position triggered circular interpolation motion command.Control Axis 0 and Axis 1 to perform a clockwise circular interpolation with a 50 radius to pisition (10000, 0) at a velocityof 1000. Wait for 1 millisecond, then execute the trigger circular interpolation motion command. When the remaining distance of Axis 0 is 80, trigger Axis 0 and Axis 1 to perform a clockwise circular interpolation (200, 0).</t>
+  </si>
+  <si>
+    <t>[[0,1],
+[200,0]]</t>
+  </si>
+  <si>
+    <t>Execute an absolute position triggered linear interpolation motion command.Control Axis 0 and Axis 1 to linearly interpolate to (100, 100) at a velocity of 1000 with acceleration and deceleration of 10000. Wait for 1 millisecond, then execute the trigger linear interpolation motion command. When the remaining distance is 30, trigger Axis 0 and Axis 1 to (200, 0). After previous interpolation completes, when the remaining distance is 30, trigger Axis 0 and Axis 1 to (200, 0).And using same trigger and condition to trigger Axis 0 and Axis 1 to (300, 100),(400, 0) and (500, 100).</t>
+  </si>
+  <si>
+    <t>[[0,1],
+[500,100]]</t>
+  </si>
+  <si>
+    <t>Execute a sequence of moving position command with blocking wait command.The moving distance of Axis 0 is 100, -100 and 100 with blocking wait.</t>
+  </si>
+  <si>
+    <t>[[0],
+[100]]</t>
+  </si>
+  <si>
+    <t>Execute a sequence of motion commands using trigger motion functions and Wait functions. Move Axis 0 as 100 distance with 1000 velocity, and trigger it to move as -100 distance when the remaining time is 0, and then move as 200 distance, and -200 distance after waiting it to be overridable.</t>
+  </si>
+  <si>
+    <t>Execute a sequence of motion commands using trigger motion functions and Wait functions. Move Axis 0 to position 180 with 1000 velocity, and trigger the velocity override to 2000, 3000, 2000, and 1000 relatively when the completed time is 0.24s.</t>
+  </si>
+  <si>
+    <t>Execute a sequence of linear interpolation commands using trigger motion functions and Wait functions. Control Axis 0 and Axis 1 to linearly interpolate to (100, 0) at a velocity of 1000，and then trigger Axis 0 and Axis 1 to linearly interpolate to (100, 100), (0, 100) and (0, 0) relatively when the remaining distance is 20.</t>
+  </si>
+  <si>
+    <t>Execute a simple PVT command of Axis 0 consisting of five points as a format of (Position, Velocity, Time): (0,0,0),(55,1000,100),(205,2000,200),(450,3000,300),(600,0,400)</t>
+  </si>
+  <si>
+    <t>[[0],
+[600]]</t>
+  </si>
+  <si>
+    <t>Execute a PVT interpolation command of Axis 0 and Axis 1 of 4 points as a format of (Position0, Velocity0, Time0, Position1, Velocity1, Time1): (0,0,0,0,0,0),(50,1000,100,100,2000,100),(100,2000,200,250,1000,200),(200,0,300,300,0,300)</t>
+  </si>
+  <si>
+    <t>Execute a PT (Position-Time) command of Axis 0 of 6 points: (0,0),(100,500),(160,1000),(200,1500),(260,2000),(300,2500)</t>
+  </si>
+  <si>
+    <t>[[0],
+[300]]</t>
+  </si>
+  <si>
+    <t>Execute a VT (Velocity-Time) command of Axis 0 of 6 points: (0,0),(100,500),(200,1000),(300,1500),(400,2000),(500,2500)</t>
+  </si>
+  <si>
+    <t>[[0],
+[750]]</t>
+  </si>
+  <si>
+    <t>Execute an AT (Acceleration-Time) command of Axis 0 of 7 points: (0,0),(100,500),(100,1000),(-100,1500),(100,2000),(-100,2500),(-100,3000)</t>
+  </si>
+  <si>
+    <t>[[0],
+[175]]</t>
+  </si>
+  <si>
+    <t>Execute a total time(1s) type cubic spline of Axis 0 and Axis 1 with 9 points: (0,0),(100,0),(50,50),(100,100),(100,150),(0,150),(0,100),(50,50),(0,0).</t>
+  </si>
+  <si>
+    <t>Execute a trapezoidal profile type cubic spline of Axis 0 and Axis 1 with 9 points and the velocity is 1000: (0,0),(100,0),(50,50),(100,100),(100,150),(0,150),(0,100),(50,50),(0,0).</t>
+  </si>
+  <si>
+    <t>Execute a velocity and acceleration limited cubic spline of Axis 0 and Axis 1 with 9 points and the velocity limit of Axis 0 and Axis 1 is 400 and 300, and the acceleration limit of Axis 0 and Axis 1 is 4000 and 3000, and the composite velocity and acceleration is 1000 and 10000: (0,0),(100,0),(50,50),(100,100),(100,150),(0,150),(0,100),(50,50),(0,0).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execute an absolute position path interpolation motion command of Axis 0 and 1 with velocity 1000. The 1st segment is a linear interpolation to position (100, 0), the 2nd segment is a clockwise circular interpolation to position (150, 50) with center point (100, 50), the 3rd segment is a linear interpolation to position (150, 100), the 4th segment is a clockwise circular interpolation to position (100, 150) with center point (100, 100), the 5th segment is a linear interpolation to position (0, 150), the 6th segment is a clockwise circular interpolation to position (-50, 100) with center point (0, 100), the 7th segment is a linear interpolation to position (-50, 50), the 8th segment is a clockwise circular interpolation to position (0, 0) with center point (0, 50). </t>
+  </si>
+  <si>
+    <t>sometimes doesn't work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execute an absolute position path interpolation motion command of Axis 0 and 1. The 1st segment is a linear interpolation to position (100, 0) with velocity 1000, the 2nd segment is a clockwise circular interpolation to position (150, 50) with center point (100, 50) with velocity 900, the 3rd segment is a linear interpolation to position (150, 100) with velocity 800, the 4th segment is a clockwise circular interpolation to position (100, 150) with center point (100, 100) with velocity 700, the 5th segment is a linear interpolation to position (0, 150) with velocity 600, the 6th segment is a clockwise circular interpolation to position (-50, 100) with center point (0, 100) with velocity 700, the 7th segment is a linear interpolation to position (-50, 50) with velocity 800, the 8th segment is a clockwise circular interpolation to position (0, 0) with center point (0, 50) with velocity 900. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Execute an absolute position path interpolation motion command of Axis 0 and 1 specifying the Motion Profile for Each Segment. The 1st segment is a linear interpolation to position (100, 0) with velocity and endvelocity 1000, the 2nd segment is a clockwise circular interpolation to position (150, 50) with center point (100, 50) with velocity and endvelocity 900, the 3rd segment is a linear interpolation to position (150, 100) with velocity and endvelocity 800, the 4th segment is a clockwise circular interpolation to position (100, 150) with center point (100, 100) with velocity and endvelocity 700, the 5th segment is a linear interpolation to position (0, 150) with velocity and endvelocity 600, the 6th segment is a clockwise circular interpolation to position (-50, 100) with center point (0, 100) with velocity and endvelocity 700, the 7th segment is a linear interpolation to position (-50, 50) with velocity and endvelocity 800, the 8th segment is a clockwise circular interpolation to position (0, 0) with center point (0, 50) with velocity 900. </t>
+  </si>
+  <si>
+    <t>Execute an absolute position path interpolation motion command of Axis 0 and 1 with auto smoothing and the velocity is 1000. The 1st segment is a linear interpolation to position (40, 100) with autoSmoothRadius 10, and the 2nd segment is a linear interpolation to position (80, 0) with autoSmoothRadius 20, and the 3rd segment is a linear interpolation to position (120, 100) with autoSmoothRadius 30, and the 4th segment is a linear interpolation to position (160, 0) with autoSmoothRadius 40, and the 5th segment is a linear interpolation to position (200, 100) with autoSmoothRadius 50, and the 6th segment is a linear interpolation to position (240, 0).</t>
+  </si>
+  <si>
+    <t>[[0,1],
+[240,0]]</t>
+  </si>
+  <si>
+    <t>Execute a 3D path interpolation of Axis 0, 1, and 2 with velocity 500. There are 21 segments. 1.Linear interpolation to (90,0,0); 2.Circular interpolation to (100,10,0) with center (97.071,10-7.071,0); 3.Linear interpolation to (100,90,0); 4.Circular interpolation to (90,100,0) with center (97.071,97.071,0);5.Linear interpolation to (10,100,0); 6.Circular interpolation to (0,90,0) with center (10-7.071,97.071,0); 7.Linear interpolation to (0,0,0); 8.Linear interpolation to (90,0,0); 9.Circular interpolation to (100,0,-10) with center (97.071,0,-10+7.071); 10.Linear interpolation to (100,0,-90); 11.Circular interpolation to (90,0,-100) with center (97.071,0,-97.071); 12.Linear interpolation to (10,0,-100); 13.Circular interpolation to (0,0,-90) with center (10-7.071,0,-97.071); 14.Linear interpolation to (0,0,0); 15.Linear interpolation to (0,90,0);  16.Circular interpolation to (0,100,-10) with center (0,97.071,-10+7.071); 17.Linear interpolation to (0,100,-90); 18.Circular interpolation to (0,90,-100) with center (0,97.071,-97.071); 19.Linear interpolation to (0,10,-100); 20.Circular interpolation to (0,0,-90) with center (0,10-7.071,-97.071); 21.Linear interpolation to (0,0,0).</t>
+  </si>
+  <si>
+    <t>[[0,1,2],
+[0,0,0]]</t>
+  </si>
+  <si>
+    <t>Execute a path interpolation with rotation sequence consisting of four linear interpolations of Axis 0 and 1 with a rotation Axis 2, and the velocity is 1000. Disable rotating the X and Y axes around the center of rotation. The center of rotation is (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0).</t>
+  </si>
+  <si>
+    <t>[[0,1,2],
+[0,0,2700]]</t>
+  </si>
+  <si>
+    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2, and the velocity is 1000. Sequence consisting of four linear interpolations and enable rotating the X and Y axes around the center of rotation. The center of rotation is (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0).</t>
+  </si>
+  <si>
+    <t>[[0,1,2],
+[100,0,2700]]</t>
+  </si>
+  <si>
+    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2 without stopping after executing each segment, and the velocity is 1000. Sequence consisting of four linear interpolations and enable rotating the X and Y axes around the center of rotation. The center of rotation is (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0). Auto smoothing radius after 1st, 2nd and 3rd segment are 30, 20, 10.</t>
+  </si>
+  <si>
+    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2 with stopping after executing each segment, and the velocity is 1000. Sequence consisting of four linear interpolations and enable rotating the X and Y axes around the center of rotation. The center of rotation is (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0). Auto smoothing radius after 1st, 2nd and 3rd segment are 30, 20, 10.</t>
+  </si>
+  <si>
+    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2 and the velocity is 1000. Sequence consisting of four linear interpolations and enable rotating the X and Y axes around the center of rotation. The center of rotation is (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0). First linearly interpolate to Point 2, then sleep 0.2s, and linearly interpolate to the last point, then sleep 0.2s, and linearly interpolate to Point 0.</t>
+  </si>
+  <si>
+    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2 and the velocity is 1000. Sequence consisting of four linear interpolations and enable rotating the X and Y axes around the center of rotation of (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0). The local center rotation of each segment is relatively (50,40),(60,50),(50,60) and (40,50).</t>
+  </si>
+  <si>
+    <t>[[0,1,2],
+[-10,12,127]]</t>
+  </si>
+  <si>
+    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2 and with a Z axis 3, the center of rotation is (75,75) and the velocity is 1000. There are 7 segments. 1.Linear interpolation to (100,0) and Z axis to 25; 2.Circular interpolation to (150,50) with center (100,50) and Z axis to 50; 3.Linear interpolation to (150,100) and Z axis to 75; 4.Circular interpolation to (100,150) with center (100,100) and Z axis to 100; 5.Linear interpolation to (50,150) and Z axis to 125; 6.Circular interpolation to (100,150) with center (50,100) and Z axis to 150; 7.Linear interpolation to (0,0) and Z axis to 175.</t>
+  </si>
+  <si>
+    <t>[[0,1,2,3],
+[150,0,2700,175]]</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, consisting of four linear interpolations: (100,0),(100,100),(0,100),(0,0).</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, consisting of four linear interpolations: (100,0),(100,100),(0,100),(0,0). First start executing it for 0.5s, then stop and sleep for 1s, and then resume it.</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 100, consisting of four linear interpolations: (100,0),(100,100),(0,100),(0,0).</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 100, consisting of four linear interpolations: (100,0),(100,100),(0,100),(0,0), while the smoothRadius are 12.5, 25 and 50.</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, composite acceleration 2000, and the acceleration limit for each axis is 1500, with a sample distance 100, consisting of four linear interpolations: (100,0),(100,100),(0,100),(0,0), while the smoothRadius are 12.5, 25 and 50.</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, composite acceleration 2000, and the acceleration limit for each axis is 1500, and the velocity limit for Axis 0 and 1 is 700 and 500,  with a sample distance 100, consisting of four linear interpolations: (100,0),(100,100),(0,100),(0,0), while the smoothRadius are 12.5, 25 and 50.</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 50 and angle tolerance 11, consisting of 36 linear interpolations to comprise a counterclockwise circle which starts from (0,0) and the radius is 200.</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 50, the smoothRadius 20, consisting of 36 linear interpolations to comprise a counterclockwise circle which starts from (0,0) and the radius is 200.</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 50, consisting of four circular interpolations defined as (throughPos0,throughPos1,endPos0,endPos1): (50,50,100,0),(50,-50,0,0),(-50,50,-100,0),(-50,-50,0,0).</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 50, and with the velocityLimit of axis 1 set to 500, consisting of four circular interpolations defined as (throughPos0,throughPos1,endPos0,endPos1): (50,50,100,0),(50,-50,0,0),(-50,50,-100,0),(-50,-50,0,0).</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 2, consisting of two linear interpolations: (50,0),(50,50). After executing 0.1s, dynamically add two linear interpolations: (50,100),(100,100).</t>
+  </si>
+  <si>
+    <t>[[0,1],
+[100,100]]</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 100, consisting of four sequences: linear interpolations to (100,0), linear interpolations to (100,100), sleep 0.5s, linear interpolations to (0,0), while the smoothRadius is 30.</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 100, consisting of eight sequences: linear interpolations to (100,0), linear interpolations to (100,100), linear interpolations to (60,100), set output 0.0 to 1, linear interpolations to (40,100),  set output 0.0 to 0, linear interpolations to (0,100), linear interpolations to (1,2), while the smoothRadius is 30.</t>
+  </si>
+  <si>
+    <t>[[0,1],
+[1,2]]</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 100, consisting of two sequences: set output 0.0 to 1 when completed distance is 20, linear interpolations to (40,0).</t>
+  </si>
+  <si>
+    <t>[[0,1],
+[40,0]]</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 100, consisting of three sequences: set output 0.0 to 1 when completed distance is 20, set output 0.1 to 1 when remaining distance is 10, linear interpolations to (40,0).</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 100, consisting of three sequences: set output 0.0 to 1 when completed distance is 30, set output 0.1 to 1 when completed distance is 20, linear interpolations to (40,0).</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 100, consisting of four linear interpolations: (100,0) with velocity 900,(100,100) with velocity 700,(0,100) with velocity 500,(0,0) with velocity 300, while the smoothRadius is 30.</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0, 1 and 2 with velocity 1000, composite acceleration 2000, and the acceleration limit for Axis 0, 1 and 2 is 300, 600 and 900, with a sample distance 100, consisting of three linear interpolations: (40,60,70),(30,20,120),(0,100),(0,0,0), while the smoothRadius is 5.</t>
+  </si>
+  <si>
     <t>[[2],
 [200]]</t>
+  </si>
+  <si>
+    <t>Start a absolute position linear interpolation motion command of Axis 0 and 1 to position (300, 100) with 1000 velocity.</t>
+  </si>
+  <si>
+    <t>Start a absolute position linear interpolation motion command of Axis 0 and 1 to position (300, 100) with 1000 velocity, and then start a relative position linear interpolation motion command of Axis 0 and 1 with  (200, -150) distance with 1000 velocity.</t>
   </si>
 </sst>
 </file>
@@ -149,7 +416,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +426,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -626,152 +907,167 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1119,307 +1415,921 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="84" customWidth="1"/>
-    <col min="3" max="3" width="46.8392857142857" customWidth="1"/>
+    <col min="3" max="3" width="46.8303571428571" customWidth="1"/>
     <col min="4" max="4" width="29.1607142857143" customWidth="1"/>
     <col min="5" max="5" width="37.6607142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:5">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" ht="34" spans="1:5">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" ht="34" spans="1:5">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" ht="51" spans="1:5">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" ht="101" spans="1:5">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" ht="17" spans="1:5">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" ht="34" spans="1:5">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" ht="34" spans="1:5">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" ht="68" spans="1:5">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" ht="34" spans="1:5">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" ht="51" spans="1:5">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" ht="51" spans="1:5">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" ht="51" spans="1:5">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" ht="34" spans="1:5">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" ht="51" spans="1:5">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" ht="51" spans="1:5">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" ht="34" spans="1:5">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" ht="34" spans="1:5">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" ht="34" spans="1:5">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" ht="51" spans="1:5">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" ht="51" spans="1:5">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" ht="68" spans="1:5">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" ht="84" spans="1:5">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" ht="84" spans="1:5">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" ht="101" spans="1:5">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" ht="135" spans="1:5">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" ht="34" spans="1:5">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" ht="68" spans="1:5">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" ht="77" customHeight="1" spans="1:5">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" ht="85" customHeight="1" spans="1:5">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" ht="51" spans="1:5">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" ht="68" spans="1:5">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" ht="34" spans="1:5">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" ht="34" spans="1:5">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" ht="34" spans="1:5">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" ht="34" spans="1:5">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" ht="51" spans="1:5">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" ht="84" spans="1:5">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" ht="168" spans="1:5">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" ht="202" spans="1:5">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" ht="236" spans="1:5">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" ht="152" spans="1:5">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" ht="269" spans="1:5">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" ht="84" spans="1:5">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" ht="84" spans="1:5">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" ht="101" spans="1:5">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" ht="101" spans="1:5">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" ht="118" spans="1:5">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" ht="84" spans="1:5">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" ht="135" spans="1:5">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" ht="34" spans="1:5">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" ht="51" spans="1:5">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" ht="51" spans="1:5">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" ht="51" spans="1:5">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" ht="68" spans="1:5">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" ht="84" spans="1:5">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" ht="68" spans="1:5">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" ht="68" spans="1:5">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" ht="68" spans="1:5">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" ht="84" spans="1:5">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" ht="68" spans="1:5">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" ht="68" spans="1:5">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" ht="101" spans="1:5">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" ht="51" spans="1:4">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" ht="68" spans="1:4">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" ht="68" spans="1:4">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" ht="68" spans="1:4">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" ht="68" spans="1:4">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1463,7 +2373,7 @@
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="84" customWidth="1"/>
-    <col min="3" max="3" width="46.8392857142857" customWidth="1"/>
+    <col min="3" max="3" width="46.8303571428571" customWidth="1"/>
     <col min="4" max="4" width="29.1607142857143" customWidth="1"/>
     <col min="5" max="5" width="37.6607142857143" customWidth="1"/>
   </cols>
@@ -1472,13 +2382,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1486,274 +2396,274 @@
       </c>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:5">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" ht="34" spans="1:5">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" ht="34" spans="1:5">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" ht="51" spans="1:5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" ht="101" spans="1:5">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" ht="17" spans="1:5">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" ht="34" spans="1:5">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" ht="34" spans="1:5">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" ht="68" spans="1:5">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" ht="34" spans="1:5">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" ht="51" spans="1:5">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" ht="51" spans="1:5">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" ht="51" spans="1:5">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" ht="34" spans="1:5">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/WMX3API_MCEval_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Dataset.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="115">
   <si>
     <t>TaskId</t>
   </si>
@@ -394,6 +394,13 @@
   </si>
   <si>
     <t>Execute path interpolation with look ahead of Axis 0, 1 and 2 with velocity 1000, composite acceleration 2000, and the acceleration limit for Axis 0, 1 and 2 is 300, 600 and 900, with a sample distance 100, consisting of three linear interpolations: (40,60,70),(30,20,120),(0,100),(0,0,0), while the smoothRadius is 5.</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0, 1 and 2 with velocity 1000, and Axis 3 as the auxiliary axis, consisting of two circular interpolations defined as (throughPos0,throughPos1,throughPos2,endPos0,endPos1,endPos2,auxiliaryTarget): (70.71,29.29,0,100,100,0,50),(29.29,70.71,0,0,0,0,100).</t>
+  </si>
+  <si>
+    <t>[[0,1,2,3],
+[0,0,0,100]]</t>
   </si>
   <si>
     <t>[[2],
@@ -1418,7 +1425,7 @@
   <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1480,7 +1487,6 @@
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
@@ -2266,70 +2272,90 @@
       </c>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" ht="51" spans="1:4">
+    <row r="65" ht="51" spans="1:5">
       <c r="A65" s="4">
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>104</v>
       </c>
+      <c r="C65" s="8"/>
       <c r="D65" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="66" ht="68" spans="1:4">
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" ht="68" spans="1:5">
       <c r="A66" s="4">
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>106</v>
       </c>
+      <c r="C66" s="8"/>
       <c r="D66" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="67" ht="68" spans="1:4">
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" ht="68" spans="1:5">
       <c r="A67" s="4">
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>107</v>
       </c>
+      <c r="C67" s="8"/>
       <c r="D67" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="68" ht="68" spans="1:4">
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" ht="68" spans="1:5">
       <c r="A68" s="4">
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>108</v>
       </c>
+      <c r="C68" s="8"/>
       <c r="D68" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="69" ht="68" spans="1:4">
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" ht="68" spans="1:5">
       <c r="A69" s="4">
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>109</v>
       </c>
+      <c r="C69" s="8"/>
       <c r="D69" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" ht="68" spans="1:5">
       <c r="A70" s="4">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="4">
-        <v>70</v>
-      </c>
+      <c r="B70" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="4"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2430,7 +2456,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -2476,7 +2502,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -2502,7 +2528,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">

--- a/docs/WMX3API_MCEval_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="25600" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="117">
   <si>
     <t>TaskId</t>
   </si>
@@ -118,7 +118,7 @@
 [7,8]]</t>
   </si>
   <si>
-    <t>Create and execute a cyclic buffer memory space for an axis 4, to pisition 100 within 200 cycles, then to pisition 10 within 600 cycles, then to pisition -100 within 200 cycles, then sleep 1.5s, and close the cyclic buffer.</t>
+    <t>Create and execute a cyclic buffer memory space for Axis 4, to pisition 100 within 200 cycles, then move a relative 0 distance within 600 cycles, then to pisition -100 within 200 cycles, then sleep 1.5s, and close the cyclic buffer.</t>
   </si>
   <si>
     <t>[[4],
@@ -163,7 +163,7 @@
 [200,100]]</t>
   </si>
   <si>
-    <t>Set an event to trigger a relative position command of Axis 0 with 110 distance and 1000 velocity, when Output 0.1 = 1. Event id is 10.</t>
+    <t>Set an event to trigger a relative position command of Axis 0 with 100 distance and 1000 velocity, when Output 0.1 = 1. Event id is 10.</t>
   </si>
   <si>
     <t>[[0],
@@ -197,7 +197,7 @@
 [-70,-40]]</t>
   </si>
   <si>
-    <t>Execute an absolute position triggered circular interpolation motion command.Control Axis 0 and Axis 1 to perform a clockwise circular interpolation with a 50 radius to pisition (10000, 0) at a velocityof 1000. Wait for 1 millisecond, then execute the trigger circular interpolation motion command. When the remaining distance of Axis 0 is 80, trigger Axis 0 and Axis 1 to perform a clockwise circular interpolation (200, 0).</t>
+    <t>Execute an absolute position triggered circular interpolation motion command.Control Axis 0 and Axis 1 to perform a clockwise circular interpolation with a 50 radius to pisition (100, 0) at a velocity 1000. Wait for 1 millisecond, then execute the trigger circular interpolation motion command. When the remaining distance of Axis 0 is 80, trigger Axis 0 and Axis 1 to perform a clockwise circular interpolation (200, 0).</t>
   </si>
   <si>
     <t>[[0,1],
@@ -237,6 +237,10 @@
     <t>Execute a PVT interpolation command of Axis 0 and Axis 1 of 4 points as a format of (Position0, Velocity0, Time0, Position1, Velocity1, Time1): (0,0,0,0,0,0),(50,1000,100,100,2000,100),(100,2000,200,250,1000,200),(200,0,300,300,0,300)</t>
   </si>
   <si>
+    <t>[[0,1],
+[200,300]]</t>
+  </si>
+  <si>
     <t>Execute a PT (Position-Time) command of Axis 0 of 6 points: (0,0),(100,500),(160,1000),(200,1500),(260,2000),(300,2500)</t>
   </si>
   <si>
@@ -270,9 +274,6 @@
     <t xml:space="preserve">Execute an absolute position path interpolation motion command of Axis 0 and 1 with velocity 1000. The 1st segment is a linear interpolation to position (100, 0), the 2nd segment is a clockwise circular interpolation to position (150, 50) with center point (100, 50), the 3rd segment is a linear interpolation to position (150, 100), the 4th segment is a clockwise circular interpolation to position (100, 150) with center point (100, 100), the 5th segment is a linear interpolation to position (0, 150), the 6th segment is a clockwise circular interpolation to position (-50, 100) with center point (0, 100), the 7th segment is a linear interpolation to position (-50, 50), the 8th segment is a clockwise circular interpolation to position (0, 0) with center point (0, 50). </t>
   </si>
   <si>
-    <t>sometimes doesn't work</t>
-  </si>
-  <si>
     <t xml:space="preserve">Execute an absolute position path interpolation motion command of Axis 0 and 1. The 1st segment is a linear interpolation to position (100, 0) with velocity 1000, the 2nd segment is a clockwise circular interpolation to position (150, 50) with center point (100, 50) with velocity 900, the 3rd segment is a linear interpolation to position (150, 100) with velocity 800, the 4th segment is a clockwise circular interpolation to position (100, 150) with center point (100, 100) with velocity 700, the 5th segment is a linear interpolation to position (0, 150) with velocity 600, the 6th segment is a clockwise circular interpolation to position (-50, 100) with center point (0, 100) with velocity 700, the 7th segment is a linear interpolation to position (-50, 50) with velocity 800, the 8th segment is a clockwise circular interpolation to position (0, 0) with center point (0, 50) with velocity 900. </t>
   </si>
   <si>
@@ -342,6 +343,9 @@
     <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 100, consisting of four linear interpolations: (100,0),(100,100),(0,100),(0,0), while the smoothRadius are 12.5, 25 and 50.</t>
   </si>
   <si>
+    <t>smoothRadius?</t>
+  </si>
+  <si>
     <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, composite acceleration 2000, and the acceleration limit for each axis is 1500, with a sample distance 100, consisting of four linear interpolations: (100,0),(100,100),(0,100),(0,0), while the smoothRadius are 12.5, 25 and 50.</t>
   </si>
   <si>
@@ -411,6 +415,9 @@
   </si>
   <si>
     <t>Start a absolute position linear interpolation motion command of Axis 0 and 1 to position (300, 100) with 1000 velocity, and then start a relative position linear interpolation motion command of Axis 0 and 1 with  (200, -150) distance with 1000 velocity.</t>
+  </si>
+  <si>
+    <t>Create and execute a cyclic buffer memory space for an axis 4, to pisition 100 within 200 cycles, then to pisition 10 within 600 cycles, then to pisition -100 within 200 cycles, then sleep 1.5s, and close the cyclic buffer.</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1051,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1059,7 +1066,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1067,13 +1074,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1424,8 +1437,8 @@
   <sheetPr/>
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1487,6 +1500,7 @@
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="C4" s="5"/>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1509,7 +1523,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4"/>
@@ -1637,7 +1651,7 @@
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="4"/>
@@ -1711,7 +1725,7 @@
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" ht="51" spans="1:5">
+    <row r="22" ht="86" customHeight="1" spans="1:5">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1767,7 +1781,7 @@
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="4"/>
@@ -1780,7 +1794,7 @@
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="4"/>
@@ -1806,198 +1820,196 @@
       <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" ht="77" customHeight="1" spans="1:5">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="8"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" ht="85" customHeight="1" spans="1:5">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="8"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" ht="51" spans="1:5">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" ht="68" spans="1:5">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" ht="34" spans="1:5">
       <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="8"/>
+      <c r="B34" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="10"/>
       <c r="D34" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" ht="34" spans="1:5">
       <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="8"/>
+      <c r="B35" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="10"/>
       <c r="D35" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" ht="34" spans="1:5">
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="8"/>
+      <c r="B36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="10"/>
       <c r="D36" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="8"/>
+        <v>67</v>
+      </c>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" ht="34" spans="1:5">
       <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="8"/>
+      <c r="B37" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="10"/>
       <c r="D37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" ht="51" spans="1:5">
       <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="8"/>
+      <c r="B38" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="10"/>
       <c r="D38" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" ht="84" spans="1:5">
       <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="8"/>
+      <c r="B39" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="10"/>
       <c r="D39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" ht="168" spans="1:5">
       <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="B40" s="11" t="s">
         <v>71</v>
       </c>
+      <c r="C40" s="10"/>
       <c r="D40" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="8"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" ht="202" spans="1:5">
       <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="8"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" ht="236" spans="1:5">
       <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="8"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E42" s="8"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" ht="152" spans="1:5">
       <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="8"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" ht="269" spans="1:5">
       <c r="A44" s="4">
@@ -2006,141 +2018,141 @@
       <c r="B44" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="8"/>
+      <c r="C44" s="10"/>
       <c r="D44" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" ht="84" spans="1:5">
       <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="8"/>
+      <c r="C45" s="10"/>
       <c r="D45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="8"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" ht="84" spans="1:5">
       <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="8"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="8"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" ht="101" spans="1:5">
       <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="8"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="10"/>
     </row>
     <row r="48" ht="101" spans="1:5">
       <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="8"/>
+      <c r="C48" s="10"/>
       <c r="D48" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" ht="118" spans="1:5">
       <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="8"/>
+      <c r="C49" s="10"/>
       <c r="D49" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="8"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" ht="84" spans="1:5">
       <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="8"/>
+      <c r="C50" s="10"/>
       <c r="D50" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E50" s="8"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" ht="135" spans="1:5">
       <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="8"/>
+      <c r="C51" s="10"/>
       <c r="D51" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" ht="34" spans="1:5">
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" ht="60" customHeight="1" spans="1:5">
       <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C52" s="8"/>
+      <c r="C52" s="10"/>
       <c r="D52" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53" ht="51" spans="1:5">
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" ht="80" customHeight="1" spans="1:5">
       <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="8"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" ht="51" spans="1:5">
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" ht="68" customHeight="1" spans="1:5">
       <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="8"/>
+      <c r="C54" s="10"/>
       <c r="D54" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="8"/>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" ht="51" spans="1:5">
       <c r="A55" s="4">
@@ -2149,213 +2161,217 @@
       <c r="B55" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="8"/>
+      <c r="C55" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="D55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="8"/>
+      <c r="E55" s="10"/>
     </row>
     <row r="56" ht="68" spans="1:5">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="8"/>
+        <v>94</v>
+      </c>
+      <c r="C56" s="10"/>
       <c r="D56" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="8"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" ht="84" spans="1:5">
       <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="8"/>
+        <v>95</v>
+      </c>
+      <c r="C57" s="10"/>
       <c r="D57" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="10"/>
     </row>
     <row r="58" ht="68" spans="1:5">
       <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" s="8"/>
+      <c r="B58" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="10"/>
       <c r="D58" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="10"/>
     </row>
     <row r="59" ht="68" spans="1:5">
       <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="8"/>
+      <c r="B59" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="10"/>
       <c r="D59" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="8"/>
+      <c r="E59" s="10"/>
     </row>
     <row r="60" ht="68" spans="1:5">
       <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="8"/>
+      <c r="B60" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="10"/>
       <c r="D60" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E60" s="8"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" ht="84" spans="1:5">
       <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" s="8"/>
+      <c r="B61" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="10"/>
       <c r="D61" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="8"/>
+      <c r="E61" s="10"/>
     </row>
     <row r="62" ht="68" spans="1:5">
       <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" s="8"/>
+      <c r="B62" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="10"/>
       <c r="D62" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E62" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" ht="68" spans="1:5">
       <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C63" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="D63" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E63" s="8"/>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" ht="101" spans="1:5">
       <c r="A64" s="4">
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" s="8"/>
+        <v>103</v>
+      </c>
+      <c r="C64" s="10"/>
       <c r="D64" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E64" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" ht="51" spans="1:5">
       <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C65" s="8"/>
+      <c r="B65" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="10"/>
       <c r="D65" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E65" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" ht="68" spans="1:5">
       <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E66" s="8"/>
+      <c r="E66" s="10"/>
     </row>
     <row r="67" ht="68" spans="1:5">
       <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" s="8"/>
+      <c r="B67" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="10"/>
       <c r="D67" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E67" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="E67" s="10"/>
     </row>
     <row r="68" ht="68" spans="1:5">
       <c r="A68" s="4">
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C68" s="8"/>
+        <v>109</v>
+      </c>
+      <c r="C68" s="10"/>
       <c r="D68" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E68" s="8"/>
-    </row>
-    <row r="69" ht="68" spans="1:5">
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" ht="92" customHeight="1" spans="1:5">
       <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="8"/>
+      <c r="B69" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="10"/>
       <c r="D69" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E69" s="8"/>
+      <c r="E69" s="10"/>
     </row>
     <row r="70" ht="68" spans="1:5">
       <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C70" s="8"/>
+      <c r="B70" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="10"/>
       <c r="D70" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E70" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="4"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2456,7 +2472,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -2502,7 +2518,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -2528,7 +2544,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
@@ -2567,7 +2583,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">

--- a/docs/WMX3API_MCEval_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10400"/>
+    <workbookView windowHeight="18700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="118">
   <si>
     <t>TaskId</t>
   </si>
@@ -59,11 +59,11 @@
 [200]]</t>
   </si>
   <si>
-    <t>Jog Axis 2 for 3.5s with 160 velocity.</t>
+    <t>Jog Axis 2 for 1.5s with 160 velocity, then start an absolute position command to position 10 with 1000 velocity.</t>
   </si>
   <si>
     <t>[[2],
-[396]]</t>
+[10]]</t>
   </si>
   <si>
     <t>Start an absolute position command of Axis 0 to position 180 with 1000 velocity, and then start a relative position command of Axis 0 with 200 distance and 2000 velocity.</t>
@@ -221,10 +221,10 @@
     <t>Execute a sequence of motion commands using trigger motion functions and Wait functions. Move Axis 0 as 100 distance with 1000 velocity, and trigger it to move as -100 distance when the remaining time is 0, and then move as 200 distance, and -200 distance after waiting it to be overridable.</t>
   </si>
   <si>
-    <t>Execute a sequence of motion commands using trigger motion functions and Wait functions. Move Axis 0 to position 180 with 1000 velocity, and trigger the velocity override to 2000, 3000, 2000, and 1000 relatively when the completed time is 0.24s.</t>
-  </si>
-  <si>
-    <t>Execute a sequence of linear interpolation commands using trigger motion functions and Wait functions. Control Axis 0 and Axis 1 to linearly interpolate to (100, 0) at a velocity of 1000，and then trigger Axis 0 and Axis 1 to linearly interpolate to (100, 100), (0, 100) and (0, 0) relatively when the remaining distance is 20.</t>
+    <t>Execute a sequence of motion commands using trigger motion functions and Wait functions. Move Axis 0 to position 180 with 20 velocity, and trigger the velocity override to 40, 60, 40, and 20 respectively when the completed time is 1s.</t>
+  </si>
+  <si>
+    <t>Execute a sequence of linear interpolation commands using trigger motion functions and Wait functions. Control Axis 0 and Axis 1 to linearly interpolate to (100, 0) at a velocity of 1000，and then trigger Axis 0 and Axis 1 to linearly interpolate to (100, 100), (0, 100) and (0, 0) respectively when the remaining distance is 20.</t>
   </si>
   <si>
     <t>Execute a simple PVT command of Axis 0 consisting of five points as a format of (Position, Velocity, Time): (0,0,0),(55,1000,100),(205,2000,200),(450,3000,300),(600,0,400)</t>
@@ -317,7 +317,7 @@
     <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2 and the velocity is 1000. Sequence consisting of four linear interpolations and enable rotating the X and Y axes around the center of rotation. The center of rotation is (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0). First linearly interpolate to Point 2, then sleep 0.2s, and linearly interpolate to the last point, then sleep 0.2s, and linearly interpolate to Point 0.</t>
   </si>
   <si>
-    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2 and the velocity is 1000. Sequence consisting of four linear interpolations and enable rotating the X and Y axes around the center of rotation of (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0). The local center rotation of each segment is relatively (50,40),(60,50),(50,60) and (40,50).</t>
+    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2 and the velocity is 1000. Sequence consisting of four linear interpolations and enable rotating the X and Y axes around the center of rotation of (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0). The local center rotation of each segment is respectively (50,40),(60,50),(50,60) and (40,50).</t>
   </si>
   <si>
     <t>[[0,1,2],
@@ -405,6 +405,9 @@
   <si>
     <t>[[0,1,2,3],
 [0,0,0,100]]</t>
+  </si>
+  <si>
+    <t>Jog Axis 2 for 3.5s with 160 velocity.</t>
   </si>
   <si>
     <t>[[2],
@@ -1437,8 +1440,8 @@
   <sheetPr/>
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1833,7 +1836,7 @@
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C30" s="10"/>
@@ -2089,7 +2092,7 @@
       </c>
       <c r="E49" s="10"/>
     </row>
-    <row r="50" ht="84" spans="1:5">
+    <row r="50" ht="101" spans="1:5">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -2468,11 +2471,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -2518,7 +2521,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -2544,7 +2547,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
@@ -2583,7 +2586,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">

--- a/docs/WMX3API_MCEval_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18700"/>
+    <workbookView windowWidth="32700" windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="119">
   <si>
     <t>TaskId</t>
   </si>
@@ -125,7 +125,7 @@
 [-100]]</t>
   </si>
   <si>
-    <t>Start the motion for a path interpolation with look ahead channel 0 for Axis 0 and 1, the 1st to 4th points are (100, 0) with smoothRadius as 12.5, (100, 100) with smoothRadius as 25,(0, 100) with smoothRadius as 50, and(0, 0).</t>
+    <t>Start the motion for a path interpolation with look ahead channel 0 for Axis 0 and 1, with velocity 500, the 1st to 4th points are (100, 0) with smoothRadius as 12.5, (100, 100) with smoothRadius as 25,(0, 100) with smoothRadius as 50, and(0, 0).</t>
   </si>
   <si>
     <t>[[0,1],
@@ -224,7 +224,7 @@
     <t>Execute a sequence of motion commands using trigger motion functions and Wait functions. Move Axis 0 to position 180 with 20 velocity, and trigger the velocity override to 40, 60, 40, and 20 respectively when the completed time is 1s.</t>
   </si>
   <si>
-    <t>Execute a sequence of linear interpolation commands using trigger motion functions and Wait functions. Control Axis 0 and Axis 1 to linearly interpolate to (100, 0) at a velocity of 1000，and then trigger Axis 0 and Axis 1 to linearly interpolate to (100, 100), (0, 100) and (0, 0) respectively when the remaining distance is 20.</t>
+    <t>Execute a sequence of linear interpolation commands using trigger motion functions and Wait functions. Control Axis 0 and Axis 1 to linearly interpolate to (100, 0) at a velocity of 500，and then trigger Axis 0 and Axis 1 to linearly interpolate to (100, 100), (0, 100) and (0, 0) respectively when the remaining distance is 20.</t>
   </si>
   <si>
     <t>Execute a simple PVT command of Axis 0 consisting of five points as a format of (Position, Velocity, Time): (0,0,0),(55,1000,100),(205,2000,200),(450,3000,300),(600,0,400)</t>
@@ -287,7 +287,7 @@
 [240,0]]</t>
   </si>
   <si>
-    <t>Execute a 3D path interpolation of Axis 0, 1, and 2 with velocity 500. There are 21 segments. 1.Linear interpolation to (90,0,0); 2.Circular interpolation to (100,10,0) with center (97.071,10-7.071,0); 3.Linear interpolation to (100,90,0); 4.Circular interpolation to (90,100,0) with center (97.071,97.071,0);5.Linear interpolation to (10,100,0); 6.Circular interpolation to (0,90,0) with center (10-7.071,97.071,0); 7.Linear interpolation to (0,0,0); 8.Linear interpolation to (90,0,0); 9.Circular interpolation to (100,0,-10) with center (97.071,0,-10+7.071); 10.Linear interpolation to (100,0,-90); 11.Circular interpolation to (90,0,-100) with center (97.071,0,-97.071); 12.Linear interpolation to (10,0,-100); 13.Circular interpolation to (0,0,-90) with center (10-7.071,0,-97.071); 14.Linear interpolation to (0,0,0); 15.Linear interpolation to (0,90,0);  16.Circular interpolation to (0,100,-10) with center (0,97.071,-10+7.071); 17.Linear interpolation to (0,100,-90); 18.Circular interpolation to (0,90,-100) with center (0,97.071,-97.071); 19.Linear interpolation to (0,10,-100); 20.Circular interpolation to (0,0,-90) with center (0,10-7.071,-97.071); 21.Linear interpolation to (0,0,0).</t>
+    <t>Execute a 3D path interpolation of Axis 0, 1, and 2 with velocity 200. There are 21 segments. 1)Linear interpolation to (90,0,0); 2)Circular interpolation to (100,10,0) with center (97.071,10-7.071,0); 3)Linear interpolation to (100,90,0); 4)Circular interpolation to (90,100,0) with center (97.071,97.071,0); 5)Linear interpolation to (10,100,0); 6)Circular interpolation to (0,90,0) with center (10-7.071,97.071,0); 7)Linear interpolation to (0,0,0); 8)Linear interpolation to (90,0,0); 9)Circular interpolation to (100,0,-10) with center (97.071,0,-10+7.071); 10)Linear interpolation to (100,0,-90); 11)Circular interpolation to (90,0,-100) with center (97.071,0,-97.071); 12)Linear interpolation to (10,0,-100); 13)Circular interpolation to (0,0,-90) with center (10-7.071,0,-97.071); 14)Linear interpolation to (0,0,0); 15)Linear interpolation to (0,90,0);  16)Circular interpolation to (0,100,-10) with center (0,97.071,-10+7.071); 17)Linear interpolation to (0,100,-90); 18)Circular interpolation to (0,90,-100) with center (0,97.071,-97.071); 19)Linear interpolation to (0,10,-100); 20)Circular interpolation to (0,0,-90) with center (0,10-7.071,-97.071); 21)Linear interpolation to (0,0,0).</t>
   </si>
   <si>
     <t>[[0,1,2],
@@ -298,33 +298,33 @@
   </si>
   <si>
     <t>[[0,1,2],
-[0,0,2700]]</t>
-  </si>
-  <si>
-    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2, and the velocity is 1000. Sequence consisting of four linear interpolations and enable rotating the X and Y axes around the center of rotation. The center of rotation is (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0).</t>
+[0,0,270]]</t>
+  </si>
+  <si>
+    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2, and the velocity is 100. Sequence consisting of four linear interpolations and enable rotating the X and Y axes around the center of rotation. The center of rotation is (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0).</t>
   </si>
   <si>
     <t>[[0,1,2],
-[100,0,2700]]</t>
-  </si>
-  <si>
-    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2 without stopping after executing each segment, and the velocity is 1000. Sequence consisting of four linear interpolations and enable rotating the X and Y axes around the center of rotation. The center of rotation is (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0). Auto smoothing radius after 1st, 2nd and 3rd segment are 30, 20, 10.</t>
-  </si>
-  <si>
-    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2 with stopping after executing each segment, and the velocity is 1000. Sequence consisting of four linear interpolations and enable rotating the X and Y axes around the center of rotation. The center of rotation is (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0). Auto smoothing radius after 1st, 2nd and 3rd segment are 30, 20, 10.</t>
-  </si>
-  <si>
-    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2 and the velocity is 1000. Sequence consisting of four linear interpolations and enable rotating the X and Y axes around the center of rotation. The center of rotation is (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0). First linearly interpolate to Point 2, then sleep 0.2s, and linearly interpolate to the last point, then sleep 0.2s, and linearly interpolate to Point 0.</t>
-  </si>
-  <si>
-    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2 and the velocity is 1000. Sequence consisting of four linear interpolations and enable rotating the X and Y axes around the center of rotation of (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0). The local center rotation of each segment is respectively (50,40),(60,50),(50,60) and (40,50).</t>
+[100,0,270]]</t>
+  </si>
+  <si>
+    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2 without stopping after executing each segment, and the velocity is 100. Sequence consisting of four linear interpolations and enable rotating the X and Y axes around the center of rotation. The center of rotation is (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0). Auto smoothing radius after 1st, 2nd and 3rd segment are 30, 20, 10.</t>
+  </si>
+  <si>
+    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2 with stopping after executing each segment, and the velocity is 100. Sequence consisting of four linear interpolations and enable rotating the X and Y axes around the center of rotation. The center of rotation is (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0). Auto smoothing radius after 1st, 2nd and 3rd segment are 30, 20, 10.</t>
+  </si>
+  <si>
+    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2 and the velocity is 100. Sequence consisting of four linear interpolations and enable rotating the X and Y axes around the center of rotation. The center of rotation is (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0). First linearly interpolate to Point 2, then sleep 0.2s, and linearly interpolate to the last point, then sleep 0.2s, and linearly interpolate to Point 0.</t>
+  </si>
+  <si>
+    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2 and the velocity is 100. Sequence consisting of four linear interpolations and enable rotating the X and Y axes around the center of rotation of (50,50). The positions of four linear interpolations are: (100,0),(100,100),(0,100),(0,0). The local center rotation of each segment is respectively (50,40),(60,50),(50,60) and (40,50).</t>
   </si>
   <si>
     <t>[[0,1,2],
 [-10,12,127]]</t>
   </si>
   <si>
-    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2 and with a Z axis 3, the center of rotation is (75,75) and the velocity is 1000. There are 7 segments. 1.Linear interpolation to (100,0) and Z axis to 25; 2.Circular interpolation to (150,50) with center (100,50) and Z axis to 50; 3.Linear interpolation to (150,100) and Z axis to 75; 4.Circular interpolation to (100,150) with center (100,100) and Z axis to 100; 5.Linear interpolation to (50,150) and Z axis to 125; 6.Circular interpolation to (100,150) with center (50,100) and Z axis to 150; 7.Linear interpolation to (0,0) and Z axis to 175.</t>
+    <t>Executes a path interpolation of Axis 0 and 1 with a rotation Axis 2 and with a Z axis 3, the center of rotation is (75,75) and the velocity is 1000. There are 7 segments. 1)Linear interpolation to (100,0) and Z axis to 25; 2)Circular interpolation to (150,50) with center (100,50) and Z axis to 50; 3)Linear interpolation to (150,100) and Z axis to 75; 4)Circular interpolation to (100,150) with center (100,100) and Z axis to 100; 5)Linear interpolation to (50,150) and Z axis to 125; 6)Circular interpolation to (100,150) with center (50,100) and Z axis to 150; 7)Linear interpolation to (0,0) and Z axis to 175.</t>
   </si>
   <si>
     <t>[[0,1,2,3],
@@ -374,7 +374,7 @@
     <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 100, consisting of four sequences: linear interpolations to (100,0), linear interpolations to (100,100), sleep 0.5s, linear interpolations to (0,0), while the smoothRadius is 30.</t>
   </si>
   <si>
-    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 100, consisting of eight sequences: linear interpolations to (100,0), linear interpolations to (100,100), linear interpolations to (60,100), set output 0.0 to 1, linear interpolations to (40,100),  set output 0.0 to 0, linear interpolations to (0,100), linear interpolations to (1,2), while the smoothRadius is 30.</t>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 100, consisting of eight sequences: linear interpolations to (100,0), linear interpolations to (100,100), linear interpolations to (60,100), set output 0.0 to 1, linear interpolations to (40,100),  set output 0.0 to 0, linear interpolations to (0,100), linear interpolations to (10,20), while the smoothRadius is 30.</t>
   </si>
   <si>
     <t>[[0,1],
@@ -394,10 +394,10 @@
     <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 100, consisting of three sequences: set output 0.0 to 1 when completed distance is 30, set output 0.1 to 1 when completed distance is 20, linear interpolations to (40,0).</t>
   </si>
   <si>
-    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 100, consisting of four linear interpolations: (100,0) with velocity 900,(100,100) with velocity 700,(0,100) with velocity 500,(0,0) with velocity 300, while the smoothRadius is 30.</t>
-  </si>
-  <si>
-    <t>Execute path interpolation with look ahead of Axis 0, 1 and 2 with velocity 1000, composite acceleration 2000, and the acceleration limit for Axis 0, 1 and 2 is 300, 600 and 900, with a sample distance 100, consisting of three linear interpolations: (40,60,70),(30,20,120),(0,100),(0,0,0), while the smoothRadius is 5.</t>
+    <t>Execute path interpolation with look ahead of Axis 0 and Axis 1 with velocity 1000, with a sample distance 10, consisting of four linear interpolations: (100,0) with velocity 900,(100,100) with velocity 700,(0,100) with velocity 500,(0,0) with velocity 300, while the smoothRadius is 30.</t>
+  </si>
+  <si>
+    <t>Execute path interpolation with look ahead of Axis 0, 1 and 2 with velocity 100, composite acceleration 1000, and the acceleration limit for Axis 0, 1 and 2 is 300, 600 and 900, with a sample distance 100, consisting of three linear interpolations: (40,60,70),(30,20,120),(0,0,0), while the smoothRadius is 5.</t>
   </si>
   <si>
     <t>Execute path interpolation with look ahead of Axis 0, 1 and 2 with velocity 1000, and Axis 3 as the auxiliary axis, consisting of two circular interpolations defined as (throughPos0,throughPos1,throughPos2,endPos0,endPos1,endPos2,auxiliaryTarget): (70.71,29.29,0,100,100,0,50),(29.29,70.71,0,0,0,0,100).</t>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Create and execute a cyclic buffer memory space for an axis 4, to pisition 100 within 200 cycles, then to pisition 10 within 600 cycles, then to pisition -100 within 200 cycles, then sleep 1.5s, and close the cyclic buffer.</t>
+  </si>
+  <si>
+    <t>Start the motion for a path interpolation with look ahead channel 0 for Axis 0 and 1, the 1st to 4th points are (100, 0) with smoothRadius as 12.5, (100, 100) with smoothRadius as 25,(0, 100) with smoothRadius as 50, and(0, 0).</t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1443,8 @@
   <sheetPr/>
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -2599,7 +2602,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">

--- a/docs/WMX3API_MCEval_Dataset.xlsx
+++ b/docs/WMX3API_MCEval_Dataset.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32700" windowHeight="16760"/>
+    <workbookView windowWidth="32700" windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="119">
   <si>
     <t>TaskId</t>
   </si>
@@ -1443,8 +1443,8 @@
   <sheetPr/>
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -2273,9 +2273,7 @@
       <c r="B63" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="C63" s="10"/>
       <c r="D63" s="4" t="s">
         <v>29</v>
       </c>
